--- a/work/TipTop GP/worklog/圣奥/圣奥-出货应收客制规格4.020170622.xlsx
+++ b/work/TipTop GP/worklog/圣奥/圣奥-出货应收客制规格4.020170622.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2376" yWindow="1176" windowWidth="11760" windowHeight="6480" tabRatio="995" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="2376" yWindow="1176" windowWidth="11760" windowHeight="6480" tabRatio="995" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="问题类型">[1]基础资料!$A$3:$A$10</definedName>
     <definedName name="问题优先级">[1]基础资料!$D$3:$D$7</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3294,6 +3294,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>火伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环加火伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒减火抗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪抗性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%-&gt;45%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-&gt;1400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">差27%
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">5.明细资料根据符合条件的订单单号+月份逐笔显示并根据订单单号做小计，根据订单抓取回款作业单、出货作业单、开票作业单，日期均显示为单据日期
 5.1）回款作业单根据订单单号关联cxmt100，抓取cxmt100中收支类型为A.银行收支单的cxmt100中原币付款金额（新增客制栏位）、本期回款本币金额抓取tc_nme05，并记录报表中的贷方金额栏位
 对应凭证编号根据cxmt100中收支单号抓取anmt320或anmt200中凭证编号显示；总账应收余额=该订单上一笔总账应收余额（不含期初余额）+借方-贷方，出货应收余额=该订单单据类型是回款单作业或发货单作业的上一笔总账应收余额（不含期初余额）+类型是回款单作业或发货单作业的借方-类型是回款单作业或发货单作业的贷方
@@ -3301,45 +3334,13 @@
 对应凭证编号抓取axrt300中凭证编号显示
 5.3）出货作业单根据订单单号抓取已审核扣账未抛转应收axrt300的出货单号/销退单，若是出货抓取axmt620单头的原币含税金额oga51、本币含税金额oga511且计入报表的借方金额，若是销退单则抓取axmt700中，计入报表的借方金额并以负数显示
 5.4）抓取到查询日期范围内当月的该订单所有回款作业、发货作业、开票作业后按订单对借方金额、贷方金额、总账应收余额、出货应收余额根据明细资料做小计显示
-6.MISC开票：当月根据客户抓取所有订单资料后，再根据客户抓取1）axrt300中账款类型为14或22单头原币含税金额、本币含税金额，若axrt300单头账款类型是2开头则金额以负数显示，账款类型是1开头则金额以正数显示，凭证号直接抓取单据上凭证编号，抓取所有开票作业单后做小计显示
+6.MISC开票：当月根据客户抓取所有订单资料后，再根据客户抓取
+1）axrt300中账款类型为14或22单头原币含税金额、本币含税金额，若axrt300单头账款类型是2开头则金额以负数显示，账款类型是1开头则金额以正数显示，凭证号直接抓取单据上凭证编号，抓取所有开票作业单后做小计显示
 2）未维护收支单：anmt302或anmt200未勾稽到cxmt100中的收款资料，分别抓取anmt302或anmt200的单头原币金额、本币金额计入报表贷方金额，凭证号直接抓取单据上凭证编号，抓取所有收支作业单后做小计显示
 3）退款：抓取axrt410中单头的原币金额、本币金额计入报表借方金额，凭证号直接抓取单据上凭证编号，抓取所有退款单后做小计显示
 4）应收调整：抓取axrt401中单头的原币金额、本币金额，若单头单据类型为1.应收账款则金额计入报表借方金额并以负数显示，若单头单据类型为2.待抵账款则金额计入报表贷方金额并以负数显示，凭证号直接抓取单据上凭证编号，抓取所有调整单后做小计显示
 7.查询出日期范围内所有资料后按月分别对借方、贷方所有明细做合计，显示为本期合计，总账应收余额、出货应收余额分别按小计作业合计
 8.最后按月统计累计额，为各项年初余额+本期合计
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环加火伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒减火抗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪抗性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%-&gt;45%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-&gt;1400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">差27%
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4749,6 +4750,10 @@
     <xf numFmtId="0" fontId="45" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4776,6 +4781,12 @@
     <xf numFmtId="12" fontId="43" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4784,16 +4795,6 @@
     </xf>
     <xf numFmtId="12" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -6071,11 +6072,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -6168,16 +6169,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -6198,14 +6199,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -6226,16 +6227,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -6255,14 +6256,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6390,58 +6391,58 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="54" customHeight="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="104" t="s">
         <v>631</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" s="33" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:11" s="33" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="1:11" s="33" customFormat="1" ht="15">
       <c r="A27" s="34"/>
@@ -6652,11 +6653,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -6749,16 +6750,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -6779,14 +6780,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -6807,16 +6808,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -6836,14 +6837,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -6971,31 +6972,31 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="61.5" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="104" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -7227,11 +7228,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -7324,16 +7325,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -7354,16 +7355,16 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -7384,16 +7385,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -7543,46 +7544,46 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="300.75" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="104" t="s">
         <v>639</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="158.25" customHeight="1">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="109" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -7794,11 +7795,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -7891,16 +7892,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -7921,16 +7922,16 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -7951,16 +7952,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -8068,16 +8069,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="163.5" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -8276,8 +8277,8 @@
   </sheetPr>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H60"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -8307,11 +8308,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -8404,16 +8405,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>362</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -8434,14 +8435,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -8462,16 +8463,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -8491,14 +8492,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -8603,13 +8604,13 @@
       <c r="D20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="23"/>
@@ -8679,13 +8680,13 @@
       <c r="D24" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="23"/>
@@ -8698,13 +8699,13 @@
       <c r="D25" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="23"/>
@@ -8717,13 +8718,13 @@
       <c r="D26" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="23"/>
@@ -8736,13 +8737,13 @@
       <c r="D27" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23"/>
@@ -8755,13 +8756,13 @@
       <c r="D28" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="23"/>
@@ -8774,13 +8775,13 @@
       <c r="D29" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="23"/>
@@ -9059,13 +9060,13 @@
       <c r="D44" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="23"/>
@@ -9078,13 +9079,13 @@
       <c r="D45" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="23"/>
@@ -9329,46 +9330,46 @@
       <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" ht="245.25" customHeight="1">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
       <c r="I60" s="32"/>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="1:11" ht="182.25" customHeight="1">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
       <c r="I61" s="32"/>
       <c r="J61" s="33"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="1:11" ht="323.25" customHeight="1">
-      <c r="A62" s="102" t="s">
-        <v>647</v>
-      </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
+      <c r="A62" s="104" t="s">
+        <v>655</v>
+      </c>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
@@ -9535,6 +9536,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="E26:K26"/>
     <mergeCell ref="E20:K20"/>
     <mergeCell ref="E24:K24"/>
@@ -9542,16 +9550,9 @@
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="E27:K27"/>
     <mergeCell ref="E28:K28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="E29:K29"/>
     <mergeCell ref="E44:K44"/>
     <mergeCell ref="E45:K45"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A62:H62"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -9583,52 +9584,52 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>649</v>
       </c>
-      <c r="D1" t="s">
-        <v>650</v>
-      </c>
       <c r="E1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B2" s="112">
+        <v>652</v>
+      </c>
+      <c r="B2" s="100">
         <v>0.75</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="100">
         <v>0.4</v>
       </c>
       <c r="E2">
         <v>350</v>
       </c>
-      <c r="F2" s="115" t="s">
-        <v>655</v>
+      <c r="F2" s="111" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>652</v>
-      </c>
-      <c r="D3" s="112">
+      <c r="B3" s="101" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" s="100">
         <v>0.4</v>
       </c>
       <c r="E3">
         <v>550</v>
       </c>
-      <c r="F3" s="114"/>
+      <c r="F3" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9677,11 +9678,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -9774,16 +9775,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -9804,14 +9805,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -9832,16 +9833,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -9861,14 +9862,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -9964,16 +9965,16 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="360" customHeight="1">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="I21" s="32"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
@@ -10204,11 +10205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -10301,16 +10302,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -10331,16 +10332,16 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -10361,16 +10362,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101">
+      <c r="A12" s="103">
         <v>1</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -10478,16 +10479,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -10717,11 +10718,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -10814,16 +10815,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -10844,14 +10845,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -10872,16 +10873,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101">
+      <c r="A12" s="103">
         <v>1</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -10989,16 +10990,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="66" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -11228,11 +11229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -11325,16 +11326,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -11355,14 +11356,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -11383,16 +11384,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101">
+      <c r="A12" s="103">
         <v>1</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -11500,16 +11501,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -12492,11 +12493,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -12589,16 +12590,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -12619,14 +12620,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -12647,16 +12648,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101">
+      <c r="A12" s="103">
         <v>1</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -12764,16 +12765,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -13003,11 +13004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -13100,16 +13101,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -13130,14 +13131,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -13158,16 +13159,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101">
+      <c r="A12" s="103">
         <v>1</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -13275,16 +13276,16 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -13512,11 +13513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -13612,17 +13613,17 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -13644,17 +13645,17 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="103" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -13676,17 +13677,17 @@
       <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -13707,15 +13708,15 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -13854,55 +13855,55 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="33" customFormat="1" ht="15">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:12" s="33" customFormat="1" ht="15">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:12" s="33" customFormat="1" ht="15">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:12" s="33" customFormat="1" ht="15">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:12" s="33" customFormat="1" ht="15">
@@ -14155,11 +14156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -14252,16 +14253,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>520</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -14282,14 +14283,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -14310,16 +14311,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -14339,14 +14340,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -14457,16 +14458,16 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="115" t="s">
         <v>523</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -14721,11 +14722,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -14818,16 +14819,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>529</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -14848,14 +14849,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -14876,16 +14877,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -14905,14 +14906,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -15022,16 +15023,16 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="104" t="s">
         <v>530</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -15967,11 +15968,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -16064,16 +16065,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -16094,14 +16095,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -16122,16 +16123,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -16151,16 +16152,16 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -16289,16 +16290,16 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="135" customHeight="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
       <c r="I23" s="32"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -16546,11 +16547,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -16643,14 +16644,14 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -16671,14 +16672,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -16699,16 +16700,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -16728,16 +16729,16 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -16885,16 +16886,16 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="135" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -17145,11 +17146,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -17242,14 +17243,14 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -17270,14 +17271,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -17298,16 +17299,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -17327,14 +17328,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -17401,15 +17402,15 @@
       <c r="D18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="106" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" customHeight="1">
       <c r="A19" s="23"/>
@@ -17422,15 +17423,15 @@
       <c r="D19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="23"/>
@@ -17443,15 +17444,15 @@
       <c r="D20" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="23"/>
@@ -17464,15 +17465,15 @@
       <c r="D21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="23"/>
@@ -17485,15 +17486,15 @@
       <c r="D22" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="23"/>
@@ -17506,15 +17507,15 @@
       <c r="D23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="104" t="s">
+      <c r="E23" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="23"/>
@@ -17527,15 +17528,15 @@
       <c r="D24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="23"/>
@@ -17548,15 +17549,15 @@
       <c r="D25" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="23"/>
@@ -17569,15 +17570,15 @@
       <c r="D26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="23"/>
@@ -17590,15 +17591,15 @@
       <c r="D27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23"/>
@@ -17611,15 +17612,15 @@
       <c r="D28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="23"/>
@@ -17632,15 +17633,15 @@
       <c r="D29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="23"/>
@@ -17653,15 +17654,15 @@
       <c r="D30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="23"/>
@@ -17674,15 +17675,15 @@
       <c r="D31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="106" t="s">
         <v>640</v>
       </c>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="23"/>
@@ -17695,15 +17696,15 @@
       <c r="D32" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="23"/>
@@ -17799,13 +17800,13 @@
       <c r="D38" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="23"/>
@@ -17837,13 +17838,13 @@
       <c r="D40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="23"/>
@@ -17856,13 +17857,13 @@
       <c r="D41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="23"/>
@@ -17875,13 +17876,13 @@
       <c r="D42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="23"/>
@@ -17894,13 +17895,13 @@
       <c r="D43" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="23"/>
@@ -17913,13 +17914,13 @@
       <c r="D44" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="23"/>
@@ -17932,13 +17933,13 @@
       <c r="D45" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="23"/>
@@ -17951,13 +17952,13 @@
       <c r="D46" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="23"/>
@@ -17970,13 +17971,13 @@
       <c r="D47" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="23"/>
@@ -18067,46 +18068,46 @@
       <c r="K53" s="16"/>
     </row>
     <row r="54" spans="1:11" ht="168" customHeight="1">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
       <c r="I54" s="32"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11" ht="281.25" customHeight="1">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
       <c r="I55" s="32"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="1:11" ht="137.25" customHeight="1">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
       <c r="I56" s="32"/>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
@@ -18360,11 +18361,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -18457,16 +18458,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -18487,14 +18488,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -18515,16 +18516,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -18544,14 +18545,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -18685,16 +18686,16 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="32"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -18942,11 +18943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -19039,16 +19040,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>346</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -19069,14 +19070,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -19097,16 +19098,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -19126,14 +19127,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -19246,16 +19247,16 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="282.75" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
@@ -19503,11 +19504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="16.2" thickBot="1">
@@ -19600,16 +19601,16 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -19630,14 +19631,14 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -19658,16 +19659,16 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -19687,16 +19688,16 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -19809,16 +19810,16 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="105.75" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
